--- a/年会.xlsx
+++ b/年会.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fynn/Work/多项式/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fynn/Github/mitlottery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC4AE8A-B6A0-C044-B3B1-F831EFD464C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC235DBA-F832-2944-8CD6-9BA7DAA8EDC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员名单" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -421,7 +421,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1034,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10342F3-D76A-5D45-BEA2-546F52011775}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/年会.xlsx
+++ b/年会.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fynn/Github/mitlottery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC235DBA-F832-2944-8CD6-9BA7DAA8EDC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28AC2F-1BB4-544F-9F2F-F210DA727B08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员名单" sheetId="1" r:id="rId1"/>
     <sheet name="抽奖奖品" sheetId="2" r:id="rId2"/>
+    <sheet name="抽奖轮次" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>增长部</t>
   </si>
@@ -238,14 +239,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Apple Watch Series 4智能手表  粉砂色回环式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米贝医生声波电动牙刷</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>https://i.loli.net/2019/01/18/5c4193d99f9ee.jpg</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -262,7 +255,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Kindle 6英寸 电纸书(wifi)</t>
+    <t>二等奖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取人次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple Watch Series 4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kindle 电子书阅读器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>声波电动牙刷</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +286,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +350,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -390,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +444,12 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -702,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1034,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10342F3-D76A-5D45-BEA2-546F52011775}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1071,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -1079,13 +1106,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -1093,13 +1120,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="8">
         <v>6</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
@@ -1107,13 +1134,13 @@
         <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8">
         <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1129,4 +1156,88 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E251E57B-A917-FE4C-8C5F-3D5309214C78}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21">
+      <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21">
+      <c r="A3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21">
+      <c r="A4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21">
+      <c r="A5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21">
+      <c r="A6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21">
+      <c r="A7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="A8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/年会.xlsx
+++ b/年会.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fynn/Github/mitlottery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28AC2F-1BB4-544F-9F2F-F210DA727B08}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2247BA-B3EB-4947-8FCB-E2FAE2D55D9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>增长部</t>
   </si>
@@ -60,9 +60,6 @@
     <t>徐雨宁</t>
   </si>
   <si>
-    <t>庞铎垒</t>
-  </si>
-  <si>
     <t>李雪梅</t>
   </si>
   <si>
@@ -84,15 +81,9 @@
     <t>李其文</t>
   </si>
   <si>
-    <t>胡章杰</t>
-  </si>
-  <si>
     <t>黄俊</t>
   </si>
   <si>
-    <t>张川</t>
-  </si>
-  <si>
     <t>沈福丁</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>邓娟</t>
   </si>
   <si>
-    <t>刘骏</t>
-  </si>
-  <si>
     <t>李明慧</t>
   </si>
   <si>
@@ -276,6 +264,26 @@
   </si>
   <si>
     <t>声波电动牙刷</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地图片地址</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothbrush.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>kindle.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>applewatch.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphoneXMax512.png</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -402,6 +410,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -411,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +471,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,7 +757,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -787,143 +814,134 @@
       <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" ht="21">
       <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" spans="1:21" ht="21">
       <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="T3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="21">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -941,18 +959,18 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="21">
       <c r="A5" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1059,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10342F3-D76A-5D45-BEA2-546F52011775}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1070,89 +1088,105 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23">
+    <row r="1" spans="1:5" ht="23">
       <c r="A1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
+      <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
+      <c r="D3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="8">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
+      <c r="D4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{D473710A-CA3C-AE4B-BBF9-D73B4921F590}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{6B8BC8A8-0DCF-9143-8720-13C222AA4EB5}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{2A20616C-A880-A948-B98B-24418769B652}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{D70160DD-FF2E-B742-B52B-416935F4E41D}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{D473710A-CA3C-AE4B-BBF9-D73B4921F590}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6B8BC8A8-0DCF-9143-8720-13C222AA4EB5}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{2A20616C-A880-A948-B98B-24418769B652}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{D70160DD-FF2E-B742-B52B-416935F4E41D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1174,15 +1208,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11">
         <v>6</v>
@@ -1190,7 +1224,7 @@
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="11">
         <v>3</v>
@@ -1198,7 +1232,7 @@
     </row>
     <row r="4" spans="1:2" ht="21">
       <c r="A4" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -1206,7 +1240,7 @@
     </row>
     <row r="5" spans="1:2" ht="21">
       <c r="A5" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
@@ -1214,7 +1248,7 @@
     </row>
     <row r="6" spans="1:2" ht="21">
       <c r="A6" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -1222,7 +1256,7 @@
     </row>
     <row r="7" spans="1:2" ht="21">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -1230,7 +1264,7 @@
     </row>
     <row r="8" spans="1:2" ht="21">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>

--- a/年会.xlsx
+++ b/年会.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fynn/Github/mitlottery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2247BA-B3EB-4947-8FCB-E2FAE2D55D9A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8135976B-A033-2240-A940-625D56A0A07F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员名单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>增长部</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>邓娟</t>
-  </si>
-  <si>
-    <t>李明慧</t>
   </si>
   <si>
     <t>财务部</t>
@@ -756,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -928,20 +925,18 @@
       <c r="S3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T3" s="14"/>
       <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" ht="21">
       <c r="A4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -964,13 +959,13 @@
     </row>
     <row r="5" spans="1:21" ht="21">
       <c r="A5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1079,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10342F3-D76A-5D45-BEA2-546F52011775}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1094,87 +1089,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23">
       <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="8">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8">
         <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1208,15 +1203,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11">
         <v>6</v>
@@ -1224,7 +1219,7 @@
     </row>
     <row r="3" spans="1:2" ht="21">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="11">
         <v>3</v>
@@ -1232,7 +1227,7 @@
     </row>
     <row r="4" spans="1:2" ht="21">
       <c r="A4" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11">
         <v>3</v>
@@ -1240,7 +1235,7 @@
     </row>
     <row r="5" spans="1:2" ht="21">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
@@ -1248,7 +1243,7 @@
     </row>
     <row r="6" spans="1:2" ht="21">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11">
         <v>2</v>
@@ -1256,7 +1251,7 @@
     </row>
     <row r="7" spans="1:2" ht="21">
       <c r="A7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
@@ -1264,7 +1259,7 @@
     </row>
     <row r="8" spans="1:2" ht="21">
       <c r="A8" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
